--- a/Amazon/UsserData.xlsx
+++ b/Amazon/UsserData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\eclipse-workspace\Amazon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\git\repository\Amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BC29A6-3F5B-4F3C-A4DE-125900538068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427B06D9-9342-4D2A-B16B-4D56A3F735DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Price: High to Low</t>
+  </si>
+  <si>
+    <t>lessThanValue</t>
   </si>
 </sst>
 </file>
@@ -196,7 +199,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -232,6 +235,7 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -575,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9215C36A-F297-48CE-8E8A-71AD13D63E2E}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -587,6 +591,7 @@
     <col min="4" max="4" width="21.875" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15">
@@ -650,6 +655,9 @@
       <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
+      <c r="G4" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="28.5">
       <c r="A5" s="10" t="s">
@@ -669,6 +677,9 @@
       </c>
       <c r="F5" t="s">
         <v>9</v>
+      </c>
+      <c r="G5" s="19">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
